--- a/proj/ai/algo/testers/tests.xlsx
+++ b/proj/ai/algo/testers/tests.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mypy\proj\ai\algo\testers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65F47D7-754E-4F2A-BE74-B5989CF80810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A9908C-A3F7-4207-B519-0D87B6A00EEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5EAAEEAD-8EE7-4E79-A044-C896724AB5C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5EAAEEAD-8EE7-4E79-A044-C896724AB5C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="KAStar Backward" sheetId="2" r:id="rId1"/>
-    <sheet name="KAStar Bi" sheetId="1" r:id="rId2"/>
+    <sheet name="AStar Lookup" sheetId="3" r:id="rId1"/>
+    <sheet name="KAStar Backward" sheetId="2" r:id="rId2"/>
+    <sheet name="KAStar Bi" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>S</t>
   </si>
@@ -320,13 +321,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,10 +336,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,14 +658,1026 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1295032-D6C8-4DAA-BD71-8B8359B6DDAE}">
+  <dimension ref="B1:R29"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A17" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="H10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="N10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23"/>
+    </row>
+    <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18">
+        <f t="shared" ref="B11:E11" si="0">N11+H11</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="8">
+        <f>R11+L11</f>
+        <v>8</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>3</v>
+      </c>
+      <c r="K11" s="6">
+        <v>4</v>
+      </c>
+      <c r="L11" s="8">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>2</v>
+      </c>
+      <c r="R11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
+        <f t="shared" ref="B12:B15" si="1">N12+H12</f>
+        <v>4</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6">
+        <f t="shared" ref="E12:E15" si="2">Q12+K12</f>
+        <v>6</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" ref="F12:F15" si="3">R12+L12</f>
+        <v>8</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6">
+        <v>3</v>
+      </c>
+      <c r="L12" s="10">
+        <v>4</v>
+      </c>
+      <c r="N12" s="9">
+        <v>2</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6">
+        <v>3</v>
+      </c>
+      <c r="R12" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="18">
+        <f t="shared" ref="C12:C15" si="4">O13+I13</f>
+        <v>4</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6">
+        <v>2</v>
+      </c>
+      <c r="L13" s="10">
+        <v>3</v>
+      </c>
+      <c r="N13" s="9">
+        <v>3</v>
+      </c>
+      <c r="O13" s="6">
+        <v>4</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6">
+        <v>4</v>
+      </c>
+      <c r="R13" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6">
+        <v>3</v>
+      </c>
+      <c r="L14" s="10">
+        <v>4</v>
+      </c>
+      <c r="N14" s="9">
+        <v>4</v>
+      </c>
+      <c r="O14" s="6">
+        <v>5</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6">
+        <v>5</v>
+      </c>
+      <c r="R14" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" ref="D12:D15" si="5">P15+J15</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="H15" s="11">
+        <v>3</v>
+      </c>
+      <c r="I15" s="12">
+        <v>2</v>
+      </c>
+      <c r="J15" s="12">
+        <v>3</v>
+      </c>
+      <c r="K15" s="12">
+        <v>4</v>
+      </c>
+      <c r="L15" s="13">
+        <v>5</v>
+      </c>
+      <c r="N15" s="11">
+        <v>5</v>
+      </c>
+      <c r="O15" s="12">
+        <v>6</v>
+      </c>
+      <c r="P15" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>6</v>
+      </c>
+      <c r="R15" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="H17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="N17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23"/>
+    </row>
+    <row r="18" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <f t="shared" ref="B18:B22" si="6">N18+H18</f>
+        <v>6</v>
+      </c>
+      <c r="C18" s="17">
+        <f t="shared" ref="C18" si="7">O18+I18</f>
+        <v>6</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" ref="D18" si="8">P18+J18</f>
+        <v>4</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" ref="E18:E22" si="9">Q18+K18</f>
+        <v>4</v>
+      </c>
+      <c r="F18" s="8">
+        <f>R18+L18</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="6">
+        <v>4</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3</v>
+      </c>
+      <c r="K18" s="6">
+        <v>4</v>
+      </c>
+      <c r="L18" s="8">
+        <v>5</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3</v>
+      </c>
+      <c r="O18" s="6">
+        <v>2</v>
+      </c>
+      <c r="P18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="18">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" ref="F19:F22" si="10">R19+L19</f>
+        <v>6</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6">
+        <v>3</v>
+      </c>
+      <c r="L19" s="10">
+        <v>4</v>
+      </c>
+      <c r="N19" s="9">
+        <v>4</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" ref="C20:C22" si="11">O20+I20</f>
+        <v>6</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="18">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6">
+        <v>2</v>
+      </c>
+      <c r="L20" s="10">
+        <v>3</v>
+      </c>
+      <c r="N20" s="9">
+        <v>5</v>
+      </c>
+      <c r="O20" s="6">
+        <v>6</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6">
+        <v>2</v>
+      </c>
+      <c r="R20" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="H21" s="9">
+        <v>2</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6">
+        <v>3</v>
+      </c>
+      <c r="L21" s="10">
+        <v>4</v>
+      </c>
+      <c r="N21" s="9">
+        <v>6</v>
+      </c>
+      <c r="O21" s="6">
+        <v>7</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6">
+        <v>3</v>
+      </c>
+      <c r="R21" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" ref="D22" si="12">P22+J22</f>
+        <v>8</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="H22" s="11">
+        <v>3</v>
+      </c>
+      <c r="I22" s="12">
+        <v>2</v>
+      </c>
+      <c r="J22" s="12">
+        <v>3</v>
+      </c>
+      <c r="K22" s="12">
+        <v>4</v>
+      </c>
+      <c r="L22" s="13">
+        <v>5</v>
+      </c>
+      <c r="N22" s="11">
+        <v>7</v>
+      </c>
+      <c r="O22" s="12">
+        <v>6</v>
+      </c>
+      <c r="P22" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>4</v>
+      </c>
+      <c r="R22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="H24" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="N24" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="23"/>
+    </row>
+    <row r="25" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <f t="shared" ref="B25:B29" si="13">N25+H25</f>
+        <v>7</v>
+      </c>
+      <c r="C25" s="17">
+        <f t="shared" ref="C25" si="14">O25+I25</f>
+        <v>7</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" ref="D25" si="15">P25+J25</f>
+        <v>7</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" ref="E25:E29" si="16">Q25+K25</f>
+        <v>7</v>
+      </c>
+      <c r="F25" s="18">
+        <f>R25+L25</f>
+        <v>5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="6">
+        <v>4</v>
+      </c>
+      <c r="J25" s="6">
+        <v>5</v>
+      </c>
+      <c r="K25" s="6">
+        <v>6</v>
+      </c>
+      <c r="L25" s="8">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4</v>
+      </c>
+      <c r="O25" s="6">
+        <v>3</v>
+      </c>
+      <c r="P25" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>1</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="18">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="18">
+        <f t="shared" ref="F26:F29" si="17">R26+L26</f>
+        <v>5</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6">
+        <v>3</v>
+      </c>
+      <c r="L26" s="10">
+        <v>4</v>
+      </c>
+      <c r="N26" s="9">
+        <v>5</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="6">
+        <v>2</v>
+      </c>
+      <c r="R26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" ref="C27:C29" si="18">O27+I27</f>
+        <v>7</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="18">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="F27" s="18">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6">
+        <v>2</v>
+      </c>
+      <c r="L27" s="10">
+        <v>3</v>
+      </c>
+      <c r="N27" s="9">
+        <v>6</v>
+      </c>
+      <c r="O27" s="6">
+        <v>7</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="6">
+        <v>3</v>
+      </c>
+      <c r="R27" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="6">
+        <v>3</v>
+      </c>
+      <c r="L28" s="10">
+        <v>4</v>
+      </c>
+      <c r="N28" s="9">
+        <v>7</v>
+      </c>
+      <c r="O28" s="6">
+        <v>8</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="6">
+        <v>4</v>
+      </c>
+      <c r="R28" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="C29" s="12">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" ref="D29" si="19">P29+J29</f>
+        <v>9</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="H29" s="11">
+        <v>3</v>
+      </c>
+      <c r="I29" s="12">
+        <v>2</v>
+      </c>
+      <c r="J29" s="12">
+        <v>3</v>
+      </c>
+      <c r="K29" s="12">
+        <v>4</v>
+      </c>
+      <c r="L29" s="13">
+        <v>5</v>
+      </c>
+      <c r="N29" s="11">
+        <v>8</v>
+      </c>
+      <c r="O29" s="12">
+        <v>7</v>
+      </c>
+      <c r="P29" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>5</v>
+      </c>
+      <c r="R29" s="13">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="N17:R17"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:G7">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:F8">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:R15">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:L15">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F15">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18:R22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:L22">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:F22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25:R29">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:L29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A585B75-B611-4B2E-AEC4-F428EA940421}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="B1:R22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView rightToLeft="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -678,11 +1691,11 @@
   <sheetData>
     <row r="1" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
@@ -759,27 +1772,27 @@
     </row>
     <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="H10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="N10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="24"/>
+      <c r="B10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="H10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="N10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
@@ -1015,27 +2028,27 @@
     </row>
     <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="H17" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="N17" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24"/>
+      <c r="B17" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="H17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="N17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
@@ -1379,15 +2392,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E97DBCA-D3A3-494D-A678-3BA6639249B5}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView rightToLeft="1" topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1403,11 +2416,11 @@
   <sheetData>
     <row r="1" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
@@ -1445,7 +2458,7 @@
       <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="12" t="s">
         <v>1</v>
       </c>
@@ -1454,27 +2467,27 @@
     </row>
     <row r="8" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="H9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="N9" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="24"/>
+      <c r="B9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="H9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="N9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
@@ -1534,7 +2547,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="18">
-        <f t="shared" ref="C11:C14" si="2">O11+I11</f>
+        <f t="shared" ref="C11" si="2">O11+I11</f>
         <v>8</v>
       </c>
       <c r="D11" s="18">
@@ -1675,7 +2688,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="18">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -1691,7 +2704,7 @@
       <c r="H14" s="11">
         <v>2</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="12">
         <v>0</v>
       </c>
@@ -1704,7 +2717,7 @@
       <c r="N14" s="11">
         <v>0</v>
       </c>
-      <c r="O14" s="25"/>
+      <c r="O14" s="19"/>
       <c r="P14" s="12">
         <v>8</v>
       </c>
@@ -1717,27 +2730,27 @@
     </row>
     <row r="15" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="H16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="N16" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="H16" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="N16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
@@ -1938,7 +2951,7 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="12">
         <f t="shared" si="8"/>
         <v>10</v>
@@ -1947,14 +2960,14 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="20">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="25"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="12">
         <v>8</v>
       </c>
@@ -1967,7 +2980,7 @@
       <c r="N21" s="11">
         <v>8</v>
       </c>
-      <c r="O21" s="25"/>
+      <c r="O21" s="19"/>
       <c r="P21" s="12">
         <v>2</v>
       </c>
@@ -1980,27 +2993,27 @@
     </row>
     <row r="22" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="H23" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="N23" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="24"/>
+      <c r="B23" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="H23" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="N23" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23"/>
     </row>
     <row r="24" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
@@ -2201,7 +3214,7 @@
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="12">
         <f t="shared" si="13"/>
         <v>11</v>
@@ -2217,7 +3230,7 @@
       <c r="H28" s="11">
         <v>0</v>
       </c>
-      <c r="I28" s="25"/>
+      <c r="I28" s="19"/>
       <c r="J28" s="12">
         <v>8</v>
       </c>
@@ -2230,7 +3243,7 @@
       <c r="N28" s="11">
         <v>9</v>
       </c>
-      <c r="O28" s="25"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="12">
         <v>3</v>
       </c>

--- a/proj/ai/algo/testers/tests.xlsx
+++ b/proj/ai/algo/testers/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mypy\proj\ai\algo\testers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A9908C-A3F7-4207-B519-0D87B6A00EEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B534633C-0772-4773-85A0-EC49AEEF4C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5EAAEEAD-8EE7-4E79-A044-C896724AB5C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5EAAEEAD-8EE7-4E79-A044-C896724AB5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="AStar Lookup" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
   <si>
     <t>S</t>
   </si>
@@ -265,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,7 +327,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -343,6 +349,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,24 +668,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1295032-D6C8-4DAA-BD71-8B8359B6DDAE}">
-  <dimension ref="B1:R29"/>
+  <dimension ref="B1:O13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A17" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView rightToLeft="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="G9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="L9" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18">
+        <f t="shared" ref="B10:D10" si="0">L10+G10</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="18">
+        <f>O10+J10</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="7">
+        <f>Q10+L10</f>
+        <v>3</v>
+      </c>
+      <c r="H10" s="17">
+        <v>4</v>
+      </c>
+      <c r="I10" s="17">
+        <v>5</v>
+      </c>
+      <c r="J10" s="8">
+        <v>6</v>
+      </c>
+      <c r="L10" s="7">
+        <v>3</v>
+      </c>
+      <c r="M10" s="17">
+        <v>2</v>
+      </c>
+      <c r="N10" s="17">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <f>Y10+T10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="18">
+        <f t="shared" ref="D11:D13" si="1">N11+I11</f>
+        <v>6</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" ref="E11:E13" si="2">O11+J11</f>
+        <v>6</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="6">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10">
+        <v>5</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="6">
+        <v>2</v>
+      </c>
+      <c r="O11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
+        <f t="shared" ref="B12:B13" si="3">L12+G12</f>
+        <v>6</v>
+      </c>
+      <c r="C12" s="18">
+        <f t="shared" ref="C12:C13" si="4">M12+H12</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6">
+        <f>S12+N12</f>
+        <v>3</v>
+      </c>
+      <c r="J12" s="10">
+        <v>4</v>
+      </c>
+      <c r="L12" s="9">
+        <v>5</v>
+      </c>
+      <c r="M12" s="6">
+        <v>4</v>
+      </c>
+      <c r="N12" s="6">
+        <v>3</v>
+      </c>
+      <c r="O12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>2</v>
+      </c>
+      <c r="J13" s="13">
+        <v>3</v>
+      </c>
+      <c r="L13" s="11">
+        <v>6</v>
+      </c>
+      <c r="M13" s="12">
+        <v>5</v>
+      </c>
+      <c r="N13" s="12">
+        <v>4</v>
+      </c>
+      <c r="O13" s="13">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="L9:O9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:E13">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:J13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:O13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A585B75-B611-4B2E-AEC4-F428EA940421}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:R29"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A15" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="2.69921875" style="1"/>
+    <col min="10" max="12" width="2.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.69921875" style="1"/>
+    <col min="14" max="14" width="2.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="2.69921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+    </row>
+    <row r="2" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -691,8 +1063,20 @@
       <c r="G3" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -701,8 +1085,20 @@
       <c r="G4" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5"/>
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -713,8 +1109,20 @@
       <c r="G5" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6"/>
       <c r="B6" s="9"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
@@ -723,8 +1131,20 @@
       <c r="G6" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -733,8 +1153,20 @@
       <c r="G7" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8"/>
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -750,35 +1182,68 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="H10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
-      <c r="N10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="23"/>
-    </row>
-    <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10"/>
+      <c r="H10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10"/>
+      <c r="N10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11"/>
       <c r="B11" s="18">
-        <f t="shared" ref="B11:E11" si="0">N11+H11</f>
+        <f t="shared" ref="B11:F15" si="0">N11+H11</f>
         <v>4</v>
       </c>
       <c r="C11" s="18">
@@ -797,6 +1262,7 @@
         <f>R11+L11</f>
         <v>8</v>
       </c>
+      <c r="G11"/>
       <c r="H11" s="7">
         <v>3</v>
       </c>
@@ -812,6 +1278,7 @@
       <c r="L11" s="8">
         <v>5</v>
       </c>
+      <c r="M11"/>
       <c r="N11" s="7">
         <v>1</v>
       </c>
@@ -828,21 +1295,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12"/>
       <c r="B12" s="18">
-        <f t="shared" ref="B12:B15" si="1">N12+H12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:E15" si="2">Q12+K12</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" ref="F12:F15" si="3">R12+L12</f>
-        <v>8</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G12"/>
       <c r="H12" s="9">
         <v>2</v>
       </c>
@@ -854,6 +1323,7 @@
       <c r="L12" s="10">
         <v>4</v>
       </c>
+      <c r="M12"/>
       <c r="N12" s="9">
         <v>2</v>
       </c>
@@ -866,24 +1336,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13"/>
       <c r="B13" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="18">
-        <f t="shared" ref="C12:C15" si="4">O13+I13</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G13"/>
       <c r="H13" s="9">
         <v>1</v>
       </c>
@@ -897,6 +1369,7 @@
       <c r="L13" s="10">
         <v>3</v>
       </c>
+      <c r="M13"/>
       <c r="N13" s="9">
         <v>3</v>
       </c>
@@ -911,24 +1384,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14"/>
       <c r="B14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="G14"/>
       <c r="H14" s="9">
         <v>2</v>
       </c>
@@ -942,6 +1417,7 @@
       <c r="L14" s="10">
         <v>4</v>
       </c>
+      <c r="M14"/>
       <c r="N14" s="9">
         <v>4</v>
       </c>
@@ -956,27 +1432,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15"/>
       <c r="B15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" ref="D12:D15" si="5">P15+J15</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="G15"/>
       <c r="H15" s="11">
         <v>3</v>
       </c>
@@ -992,6 +1470,7 @@
       <c r="L15" s="13">
         <v>5</v>
       </c>
+      <c r="M15"/>
       <c r="N15" s="11">
         <v>5</v>
       </c>
@@ -1008,51 +1487,75 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="H17" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
-      <c r="N17" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="23"/>
-    </row>
-    <row r="18" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17"/>
+      <c r="H17" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17"/>
+      <c r="N17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18"/>
       <c r="B18" s="7">
-        <f t="shared" ref="B18:B22" si="6">N18+H18</f>
+        <f t="shared" ref="B18:F22" si="1">N18+H18</f>
         <v>6</v>
       </c>
       <c r="C18" s="17">
-        <f t="shared" ref="C18" si="7">O18+I18</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D18" s="18">
-        <f t="shared" ref="D18" si="8">P18+J18</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E18" s="18">
-        <f t="shared" ref="E18:E22" si="9">Q18+K18</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F18" s="8">
         <f>R18+L18</f>
         <v>6</v>
       </c>
+      <c r="G18"/>
       <c r="H18" s="7">
         <v>3</v>
       </c>
@@ -1068,6 +1571,7 @@
       <c r="L18" s="8">
         <v>5</v>
       </c>
+      <c r="M18"/>
       <c r="N18" s="7">
         <v>3</v>
       </c>
@@ -1084,21 +1588,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19"/>
       <c r="B19" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" ref="F19:F22" si="10">R19+L19</f>
-        <v>6</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G19"/>
       <c r="H19" s="9">
         <v>2</v>
       </c>
@@ -1110,6 +1616,7 @@
       <c r="L19" s="10">
         <v>4</v>
       </c>
+      <c r="M19"/>
       <c r="N19" s="9">
         <v>4</v>
       </c>
@@ -1122,24 +1629,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20"/>
       <c r="B20" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" ref="C20:C22" si="11">O20+I20</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G20"/>
       <c r="H20" s="9">
         <v>1</v>
       </c>
@@ -1153,6 +1662,7 @@
       <c r="L20" s="10">
         <v>3</v>
       </c>
+      <c r="M20"/>
       <c r="N20" s="9">
         <v>5</v>
       </c>
@@ -1167,24 +1677,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21"/>
       <c r="B21" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F21" s="10">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G21"/>
       <c r="H21" s="9">
         <v>2</v>
       </c>
@@ -1198,6 +1710,7 @@
       <c r="L21" s="10">
         <v>4</v>
       </c>
+      <c r="M21"/>
       <c r="N21" s="9">
         <v>6</v>
       </c>
@@ -1212,27 +1725,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22"/>
       <c r="B22" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C22" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" ref="D22" si="12">P22+J22</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E22" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F22" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
+      <c r="G22"/>
       <c r="H22" s="11">
         <v>3</v>
       </c>
@@ -1248,6 +1763,7 @@
       <c r="L22" s="13">
         <v>5</v>
       </c>
+      <c r="M22"/>
       <c r="N22" s="11">
         <v>7</v>
       </c>
@@ -1264,51 +1780,75 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="H24" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
-      <c r="N24" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="23"/>
-    </row>
-    <row r="25" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24"/>
+      <c r="H24" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24"/>
+      <c r="N24" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="25"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25"/>
       <c r="B25" s="7">
-        <f t="shared" ref="B25:B29" si="13">N25+H25</f>
+        <f t="shared" ref="B25:F29" si="2">N25+H25</f>
         <v>7</v>
       </c>
       <c r="C25" s="17">
-        <f t="shared" ref="C25" si="14">O25+I25</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D25" s="17">
-        <f t="shared" ref="D25" si="15">P25+J25</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E25" s="17">
-        <f t="shared" ref="E25:E29" si="16">Q25+K25</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F25" s="18">
         <f>R25+L25</f>
         <v>5</v>
       </c>
+      <c r="G25"/>
       <c r="H25" s="7">
         <v>3</v>
       </c>
@@ -1324,6 +1864,7 @@
       <c r="L25" s="8">
         <v>5</v>
       </c>
+      <c r="M25"/>
       <c r="N25" s="7">
         <v>4</v>
       </c>
@@ -1340,21 +1881,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26"/>
       <c r="B26" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F26" s="18">
-        <f t="shared" ref="F26:F29" si="17">R26+L26</f>
-        <v>5</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G26"/>
       <c r="H26" s="9">
         <v>2</v>
       </c>
@@ -1366,6 +1909,7 @@
       <c r="L26" s="10">
         <v>4</v>
       </c>
+      <c r="M26"/>
       <c r="N26" s="9">
         <v>5</v>
       </c>
@@ -1378,24 +1922,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27"/>
       <c r="B27" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" ref="C27:C29" si="18">O27+I27</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F27" s="18">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G27"/>
       <c r="H27" s="9">
         <v>1</v>
       </c>
@@ -1409,6 +1955,7 @@
       <c r="L27" s="10">
         <v>3</v>
       </c>
+      <c r="M27"/>
       <c r="N27" s="9">
         <v>6</v>
       </c>
@@ -1423,24 +1970,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28"/>
       <c r="B28" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="G28"/>
       <c r="H28" s="9">
         <v>2</v>
       </c>
@@ -1454,6 +2003,7 @@
       <c r="L28" s="10">
         <v>4</v>
       </c>
+      <c r="M28"/>
       <c r="N28" s="9">
         <v>7</v>
       </c>
@@ -1468,27 +2018,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29"/>
       <c r="B29" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C29" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" ref="D29" si="19">P29+J29</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E29" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F29" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="G29"/>
       <c r="H29" s="11">
         <v>3</v>
       </c>
@@ -1504,6 +2056,7 @@
       <c r="L29" s="13">
         <v>5</v>
       </c>
+      <c r="M29"/>
       <c r="N29" s="11">
         <v>8</v>
       </c>
@@ -1669,729 +2222,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A585B75-B611-4B2E-AEC4-F428EA940421}">
-  <sheetPr>
-    <tabColor theme="9" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="B1:R22"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="9" width="2.69921875" style="1"/>
-    <col min="10" max="12" width="2.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.69921875" style="1"/>
-    <col min="14" max="14" width="2.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="2.69921875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="H10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
-      <c r="N10" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="23"/>
-    </row>
-    <row r="11" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
-        <f t="shared" ref="B11:E11" si="0">N11+H11</f>
-        <v>10</v>
-      </c>
-      <c r="C11" s="17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D11" s="17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E11" s="17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F11" s="8">
-        <f>R11+L11</f>
-        <v>8</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="6">
-        <v>4</v>
-      </c>
-      <c r="J11" s="6">
-        <v>3</v>
-      </c>
-      <c r="K11" s="6">
-        <v>4</v>
-      </c>
-      <c r="L11" s="8">
-        <v>5</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5</v>
-      </c>
-      <c r="O11" s="6">
-        <v>4</v>
-      </c>
-      <c r="P11" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>2</v>
-      </c>
-      <c r="R11" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9">
-        <f t="shared" ref="B12:B15" si="1">N12+H12</f>
-        <v>10</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="18">
-        <f t="shared" ref="E12:E15" si="2">Q12+K12</f>
-        <v>4</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" ref="F12:F15" si="3">R12+L12</f>
-        <v>6</v>
-      </c>
-      <c r="H12" s="9">
-        <v>4</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6">
-        <v>3</v>
-      </c>
-      <c r="L12" s="10">
-        <v>4</v>
-      </c>
-      <c r="N12" s="9">
-        <v>6</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="6">
-        <f t="shared" ref="C13:C15" si="4">O13+I13</f>
-        <v>10</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="18">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F13" s="18">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H13" s="9">
-        <v>3</v>
-      </c>
-      <c r="I13" s="6">
-        <v>2</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6">
-        <v>2</v>
-      </c>
-      <c r="L13" s="10">
-        <v>3</v>
-      </c>
-      <c r="N13" s="9">
-        <v>7</v>
-      </c>
-      <c r="O13" s="6">
-        <v>8</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="6">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="D14" s="18">
-        <f t="shared" ref="D14:D15" si="5">P14+J14</f>
-        <v>6</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="18">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="10">
-        <v>2</v>
-      </c>
-      <c r="N14" s="9">
-        <v>8</v>
-      </c>
-      <c r="O14" s="6">
-        <v>7</v>
-      </c>
-      <c r="P14" s="6">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="D15" s="18">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="E15" s="18">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F15" s="18">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H15" s="11">
-        <v>3</v>
-      </c>
-      <c r="I15" s="12">
-        <v>2</v>
-      </c>
-      <c r="J15" s="12">
-        <v>1</v>
-      </c>
-      <c r="K15" s="12">
-        <v>2</v>
-      </c>
-      <c r="L15" s="13">
-        <v>3</v>
-      </c>
-      <c r="N15" s="11">
-        <v>7</v>
-      </c>
-      <c r="O15" s="12">
-        <v>6</v>
-      </c>
-      <c r="P15" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>4</v>
-      </c>
-      <c r="R15" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="H17" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
-      <c r="N17" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="23"/>
-    </row>
-    <row r="18" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
-        <f t="shared" ref="B18:B22" si="6">N18+H18</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="18">
-        <f t="shared" ref="C18" si="7">O18+I18</f>
-        <v>7</v>
-      </c>
-      <c r="D18" s="18">
-        <f t="shared" ref="D18" si="8">P18+J18</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="18">
-        <f t="shared" ref="E18:E20" si="9">Q18+K18</f>
-        <v>5</v>
-      </c>
-      <c r="F18" s="18">
-        <f>R18+L18</f>
-        <v>5</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="6">
-        <v>4</v>
-      </c>
-      <c r="J18" s="6">
-        <v>3</v>
-      </c>
-      <c r="K18" s="6">
-        <v>4</v>
-      </c>
-      <c r="L18" s="8">
-        <v>5</v>
-      </c>
-      <c r="N18" s="7">
-        <v>4</v>
-      </c>
-      <c r="O18" s="6">
-        <v>3</v>
-      </c>
-      <c r="P18" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>1</v>
-      </c>
-      <c r="R18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="18">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="18">
-        <f t="shared" ref="F19:F22" si="10">R19+L19</f>
-        <v>5</v>
-      </c>
-      <c r="H19" s="9">
-        <v>4</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6">
-        <v>3</v>
-      </c>
-      <c r="L19" s="10">
-        <v>4</v>
-      </c>
-      <c r="N19" s="9">
-        <v>5</v>
-      </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="6">
-        <v>2</v>
-      </c>
-      <c r="R19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="C20" s="6">
-        <f t="shared" ref="C20:C22" si="11">O20+I20</f>
-        <v>9</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="H20" s="9">
-        <v>3</v>
-      </c>
-      <c r="I20" s="6">
-        <v>2</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6">
-        <v>6</v>
-      </c>
-      <c r="L20" s="10">
-        <v>5</v>
-      </c>
-      <c r="N20" s="9">
-        <v>6</v>
-      </c>
-      <c r="O20" s="6">
-        <v>7</v>
-      </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="6">
-        <v>3</v>
-      </c>
-      <c r="R20" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="C21" s="6">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" ref="D21:D22" si="12">P21+J21</f>
-        <v>7</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="10">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="H21" s="9">
-        <v>2</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="10">
-        <v>4</v>
-      </c>
-      <c r="N21" s="9">
-        <v>7</v>
-      </c>
-      <c r="O21" s="6">
-        <v>8</v>
-      </c>
-      <c r="P21" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="C22" s="12">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="E22" s="12">
-        <f t="shared" ref="E22" si="13">Q22+K22</f>
-        <v>7</v>
-      </c>
-      <c r="F22" s="13">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="H22" s="11">
-        <v>3</v>
-      </c>
-      <c r="I22" s="12">
-        <v>2</v>
-      </c>
-      <c r="J22" s="12">
-        <v>1</v>
-      </c>
-      <c r="K22" s="12">
-        <v>2</v>
-      </c>
-      <c r="L22" s="13">
-        <v>3</v>
-      </c>
-      <c r="N22" s="11">
-        <v>8</v>
-      </c>
-      <c r="O22" s="12">
-        <v>7</v>
-      </c>
-      <c r="P22" s="12">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="12">
-        <v>5</v>
-      </c>
-      <c r="R22" s="13">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="N17:R17"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:G7">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:F8">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11:R15">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:L15">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:F15">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18:R22">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:L22">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:F22">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E97DBCA-D3A3-494D-A678-3BA6639249B5}">
   <sheetPr>
@@ -2399,8 +2229,8 @@
   </sheetPr>
   <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A15" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2416,11 +2246,11 @@
   <sheetData>
     <row r="1" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
@@ -2467,27 +2297,27 @@
     </row>
     <row r="8" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="H9" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
-      <c r="N9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="23"/>
+      <c r="B9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="H9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="N9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
     </row>
     <row r="10" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
@@ -2730,29 +2560,29 @@
     </row>
     <row r="15" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="H16" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
-      <c r="N16" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="23"/>
-    </row>
-    <row r="17" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="H16" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="N16" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <f t="shared" ref="B17:B21" si="6">N17+H17</f>
         <v>10</v>
@@ -2817,7 +2647,7 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="6">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
@@ -2993,29 +2823,29 @@
     </row>
     <row r="22" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="H23" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
-      <c r="N23" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="23"/>
-    </row>
-    <row r="24" spans="2:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="H23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="N23" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="25"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <f t="shared" ref="B24:B28" si="11">N24+H24</f>
         <v>11</v>
@@ -3084,7 +2914,7 @@
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="10">
         <f t="shared" ref="F25:F28" si="15">R25+L25</f>
         <v>9</v>
       </c>

--- a/proj/ai/algo/testers/tests.xlsx
+++ b/proj/ai/algo/testers/tests.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mypy\proj\ai\algo\testers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B534633C-0772-4773-85A0-EC49AEEF4C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6ACCB8-7ADB-4D45-88EA-9D47F934D182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5EAAEEAD-8EE7-4E79-A044-C896724AB5C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5EAAEEAD-8EE7-4E79-A044-C896724AB5C1}"/>
   </bookViews>
   <sheets>
     <sheet name="AStar Lookup" sheetId="3" r:id="rId1"/>
-    <sheet name="KAStar Backward" sheetId="2" r:id="rId2"/>
-    <sheet name="KAStar Bi" sheetId="1" r:id="rId3"/>
+    <sheet name="AStar Lookup Early" sheetId="4" r:id="rId2"/>
+    <sheet name="KAStar Backward" sheetId="2" r:id="rId3"/>
+    <sheet name="KAStar Bi" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
   <si>
     <t>S</t>
   </si>
@@ -668,10 +669,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1295032-D6C8-4DAA-BD71-8B8359B6DDAE}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="B1:O13"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -989,6 +993,331 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780C2466-9D1A-42B8-8298-8B4CF8DE967F}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="B1:O13"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="G9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="L9" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18">
+        <f t="shared" ref="B10:E13" si="0">L10+G10</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="18">
+        <f>O10+J10</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="7">
+        <f>Q10+L10</f>
+        <v>3</v>
+      </c>
+      <c r="H10" s="17">
+        <v>4</v>
+      </c>
+      <c r="I10" s="17">
+        <v>5</v>
+      </c>
+      <c r="J10" s="8">
+        <v>6</v>
+      </c>
+      <c r="L10" s="7">
+        <v>3</v>
+      </c>
+      <c r="M10" s="17">
+        <v>2</v>
+      </c>
+      <c r="N10" s="17">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <f>Y10+T10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="6">
+        <v>4</v>
+      </c>
+      <c r="J11" s="10">
+        <v>5</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="6">
+        <v>2</v>
+      </c>
+      <c r="O11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
+        <f t="shared" ref="B12:C13" si="1">L12+G12</f>
+        <v>6</v>
+      </c>
+      <c r="C12" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6">
+        <f>S12+N12</f>
+        <v>3</v>
+      </c>
+      <c r="J12" s="10">
+        <v>4</v>
+      </c>
+      <c r="L12" s="9">
+        <v>5</v>
+      </c>
+      <c r="M12" s="6">
+        <v>4</v>
+      </c>
+      <c r="N12" s="6">
+        <v>3</v>
+      </c>
+      <c r="O12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>2</v>
+      </c>
+      <c r="J13" s="13">
+        <v>3</v>
+      </c>
+      <c r="L13" s="11">
+        <v>6</v>
+      </c>
+      <c r="M13" s="12">
+        <v>5</v>
+      </c>
+      <c r="N13" s="12">
+        <v>4</v>
+      </c>
+      <c r="O13" s="13">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="L9:O9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:E13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:J13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:O13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A585B75-B611-4B2E-AEC4-F428EA940421}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -2222,15 +2551,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E97DBCA-D3A3-494D-A678-3BA6639249B5}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A15" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView rightToLeft="1" topLeftCell="A15" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
